--- a/data/TesslaServer Number of Cores Benchmark.xlsx
+++ b/data/TesslaServer Number of Cores Benchmark.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -179,6 +179,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF77200"/>
+      <color rgb="FF0C4E6C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -216,7 +222,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0C4E6C"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -480,7 +486,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="F77200"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -668,11 +674,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-801260176"/>
-        <c:axId val="-872512880"/>
+        <c:axId val="-1502960528"/>
+        <c:axId val="-1507205584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-801260176"/>
+        <c:axId val="-1502960528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,7 +791,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-872512880"/>
+        <c:crossAx val="-1507205584"/>
         <c:crossesAt val="0.01"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -793,7 +799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-872512880"/>
+        <c:axId val="-1507205584"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -908,7 +914,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-801260176"/>
+        <c:crossAx val="-1502960528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>

--- a/data/TesslaServer Number of Cores Benchmark.xlsx
+++ b/data/TesslaServer Number of Cores Benchmark.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>1</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Execution Time V1,5</t>
+  </si>
+  <si>
+    <t>Execution Time V2</t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,43 @@
     <cellStyle name="Ergebnis" xfId="1" builtinId="25"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="31">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="##0.########&quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="##0.########&quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="##0.########&quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="##0.########&quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="##0.########&quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="##0.########&quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="##0.########&quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="##0.########&quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="##0.########&quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="##0.########&quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="##0.########&quot;s&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="##0.########&quot;s&quot;"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="##0.########&quot;s&quot;"/>
     </dxf>
@@ -181,6 +220,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FF99B222"/>
       <color rgb="FFF77200"/>
       <color rgb="FF0C4E6C"/>
     </mruColors>
@@ -430,7 +470,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$C$3:$G$3</c:f>
+              <c:f>Tabelle1!$M$27:$Q$27</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -637,6 +677,29 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$M$27:$Q$27</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$J$24:$N$24</c:f>
@@ -663,6 +726,236 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>V2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="99B222"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0123552123552124"/>
+                  <c:y val="0.0215343203230148"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0185328185328185"/>
+                  <c:y val="-0.0323014804845222"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0154440154440154"/>
+                  <c:y val="-0.0376850605652759"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0138996138996139"/>
+                  <c:y val="-0.0323014804845223"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0262548262548264"/>
+                  <c:y val="-0.0215343203230148"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="##0.00\ &quot;s&quot;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$M$27:$Q$27</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$M$48:$Q$48</c:f>
+              <c:numCache>
+                <c:formatCode>##,0##,###,###"s"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.518921160697936</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.632417094707489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.015530955791474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.031205880641938</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.078881955146791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
@@ -674,11 +967,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1502960528"/>
-        <c:axId val="-1507205584"/>
+        <c:axId val="1095376112"/>
+        <c:axId val="1095378656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1502960528"/>
+        <c:axId val="1095376112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -791,7 +1084,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1507205584"/>
+        <c:crossAx val="1095378656"/>
         <c:crossesAt val="0.01"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -799,7 +1092,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1507205584"/>
+        <c:axId val="1095378656"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -914,7 +1207,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1502960528"/>
+        <c:crossAx val="1095376112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1563,7 +1856,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1587,28 +1880,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Exec_Time_V1" displayName="Exec_Time_V1" ref="C3:G24" totalsRowCount="1" dataDxfId="18" totalsRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Exec_Time_V1" displayName="Exec_Time_V1" ref="C3:G24" totalsRowCount="1" dataDxfId="30" totalsRowDxfId="29">
   <autoFilter ref="C3:G23"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="1" totalsRowFunction="average" dataDxfId="16"/>
-    <tableColumn id="2" name="2" totalsRowFunction="average" dataDxfId="15"/>
-    <tableColumn id="3" name="4" totalsRowFunction="average" dataDxfId="14"/>
-    <tableColumn id="4" name="8" totalsRowFunction="average" dataDxfId="13"/>
-    <tableColumn id="5" name="16" totalsRowFunction="average" dataDxfId="12"/>
+    <tableColumn id="1" name="1" totalsRowFunction="average" dataDxfId="28"/>
+    <tableColumn id="2" name="2" totalsRowFunction="average" dataDxfId="27"/>
+    <tableColumn id="3" name="4" totalsRowFunction="average" dataDxfId="26"/>
+    <tableColumn id="4" name="8" totalsRowFunction="average" dataDxfId="25"/>
+    <tableColumn id="5" name="16" totalsRowFunction="average" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Exec_Time_V13" displayName="Exec_Time_V13" ref="J3:N24" totalsRowCount="1" dataDxfId="11" totalsRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Exec_Time_V13" displayName="Exec_Time_V13" ref="J3:N24" totalsRowCount="1" dataDxfId="23" totalsRowDxfId="22">
   <autoFilter ref="J3:N23"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="1" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" name="2" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="3" name="4" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="4" name="8" totalsRowFunction="average" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="5" name="16" totalsRowFunction="average" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="1" totalsRowFunction="average" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="2" name="2" totalsRowFunction="average" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="3" name="4" totalsRowFunction="average" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" name="8" totalsRowFunction="average" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="5" name="16" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Exec_Time_V134" displayName="Exec_Time_V134" ref="M27:Q48" totalsRowCount="1" dataDxfId="11" totalsRowDxfId="10">
+  <autoFilter ref="M27:Q47"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="1" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="2" totalsRowFunction="average" dataDxfId="6" totalsRowDxfId="3"/>
+    <tableColumn id="3" name="4" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="8" totalsRowFunction="average" dataDxfId="8" totalsRowDxfId="1"/>
+    <tableColumn id="5" name="16" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1877,16 +2184,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:N25"/>
+  <dimension ref="C2:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="7" width="18.1640625" customWidth="1"/>
-    <col min="10" max="14" width="18.33203125" customWidth="1"/>
+    <col min="3" max="7" width="20" customWidth="1"/>
+    <col min="10" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2353,7 +2661,7 @@
         <v>2.5560791492462198</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
         <v>38.391316890716602</v>
       </c>
@@ -2385,7 +2693,7 @@
         <v>2.67395687103271</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
         <v>40.453635215759299</v>
       </c>
@@ -2417,7 +2725,7 @@
         <v>2.5466279983520499</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
         <v>39.073542833328197</v>
       </c>
@@ -2449,7 +2757,7 @@
         <v>2.6240160465240501</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
         <v>38.883072137832599</v>
       </c>
@@ -2481,7 +2789,7 @@
         <v>2.6939780712127699</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
         <v>39.079947948455803</v>
       </c>
@@ -2513,7 +2821,7 @@
         <v>2.59407687187195</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
         <v>39.386613845825202</v>
       </c>
@@ -2545,7 +2853,7 @@
         <v>2.6347198486328098</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
         <v>40.112444877624498</v>
       </c>
@@ -2577,7 +2885,7 @@
         <v>2.64877510070801</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
         <f>SUBTOTAL(101,Exec_Time_V1[1])</f>
         <v>38.782550621032712</v>
@@ -2619,22 +2927,412 @@
         <v>2.6400778293609606</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="J25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
+    <row r="26" spans="3:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="3:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="M28" s="2">
+        <v>3.6209340095520002</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1.59801578521729</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1.02486300468445</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.94876790046691895</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>1.0100128650665301</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="M29" s="2">
+        <v>3.4831960201263401</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1.65065813064575</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.96475291252136197</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.97404098510742199</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0.97104096412658703</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="M30" s="2">
+        <v>3.4887738227844198</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1.7537529468536399</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0.989146947860718</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.959750175476074</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0.98981714248657204</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="M31" s="2">
+        <v>3.4391460418701199</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1.5979189872741699</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1.0094079971313501</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1.0330998897552499</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>1.0821509361267101</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="M32" s="2">
+        <v>3.5210478305816699</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1.65185594558716</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1.0131649971008301</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0.93174219131469704</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1.1515369415283201</v>
+      </c>
+    </row>
+    <row r="33" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M33" s="2">
+        <v>3.4481871128082302</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1.72554802894592</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0.97639799118042003</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0.98719310760498002</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0.98241496086120605</v>
+      </c>
+    </row>
+    <row r="34" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M34" s="2">
+        <v>3.5500898361206099</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1.64888191223145</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0.99487614631652799</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0.97996687889099099</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>1.09817218780518</v>
+      </c>
+    </row>
+    <row r="35" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M35" s="2">
+        <v>3.4965081214904798</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1.6247031688690201</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1.0983910560607899</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0.96778512001037598</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>1.1374650001525899</v>
+      </c>
+    </row>
+    <row r="36" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M36" s="2">
+        <v>3.5864529609680198</v>
+      </c>
+      <c r="N36" s="2">
+        <v>1.61505603790283</v>
+      </c>
+      <c r="O36" s="2">
+        <v>1.0397970676422099</v>
+      </c>
+      <c r="P36" s="2">
+        <v>1.0113780498504601</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>1.0421228408813501</v>
+      </c>
+    </row>
+    <row r="37" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M37" s="2">
+        <v>3.5041038990020801</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1.6346449851989699</v>
+      </c>
+      <c r="O37" s="2">
+        <v>1.09225702285767</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1.07588291168213</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>1.10136294364929</v>
+      </c>
+    </row>
+    <row r="38" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M38" s="2">
+        <v>3.4432520866393999</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1.5805580615997299</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0.94479894638061501</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1.0034880638122601</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>1.06030297279358</v>
+      </c>
+    </row>
+    <row r="39" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M39" s="2">
+        <v>3.8407537937164302</v>
+      </c>
+      <c r="N39" s="2">
+        <v>1.6097309589386</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1.01742196083069</v>
+      </c>
+      <c r="P39" s="2">
+        <v>1.0094139575958301</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>1.07141709327698</v>
+      </c>
+    </row>
+    <row r="40" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M40" s="2">
+        <v>3.6057720184326199</v>
+      </c>
+      <c r="N40" s="2">
+        <v>1.5792610645294201</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0.96424317359924305</v>
+      </c>
+      <c r="P40" s="2">
+        <v>1.0839359760284399</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>1.1895620822906501</v>
+      </c>
+    </row>
+    <row r="41" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M41" s="2">
+        <v>3.49966192245483</v>
+      </c>
+      <c r="N41" s="2">
+        <v>1.53581094741821</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0.98136186599731401</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0.99721312522888195</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>1.0238780975341799</v>
+      </c>
+    </row>
+    <row r="42" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M42" s="2">
+        <v>3.5351409912109402</v>
+      </c>
+      <c r="N42" s="2">
+        <v>1.6082341670989999</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0.98923587799072299</v>
+      </c>
+      <c r="P42" s="2">
+        <v>1.28787422180176</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>1.12109899520874</v>
+      </c>
+    </row>
+    <row r="43" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M43" s="2">
+        <v>3.44622802734375</v>
+      </c>
+      <c r="N43" s="2">
+        <v>1.73915886878967</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1.0155940055847199</v>
+      </c>
+      <c r="P43" s="2">
+        <v>1.0074930191039999</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>1.12979388237</v>
+      </c>
+    </row>
+    <row r="44" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M44" s="2">
+        <v>3.5057790279388401</v>
+      </c>
+      <c r="N44" s="2">
+        <v>1.5449178218841599</v>
+      </c>
+      <c r="O44" s="2">
+        <v>1.04738092422485</v>
+      </c>
+      <c r="P44" s="2">
+        <v>1.17523288726807</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>1.16166114807129</v>
+      </c>
+    </row>
+    <row r="45" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M45" s="2">
+        <v>3.5862059593200701</v>
+      </c>
+      <c r="N45" s="2">
+        <v>1.6800510883331301</v>
+      </c>
+      <c r="O45" s="2">
+        <v>1.01337814331055</v>
+      </c>
+      <c r="P45" s="2">
+        <v>1.0350170135498</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>1.0672760009765601</v>
+      </c>
+    </row>
+    <row r="46" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M46" s="2">
+        <v>3.37714791297913</v>
+      </c>
+      <c r="N46" s="2">
+        <v>1.6111130714416499</v>
+      </c>
+      <c r="O46" s="2">
+        <v>1.00805711746216</v>
+      </c>
+      <c r="P46" s="2">
+        <v>1.0964331626892101</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>1.1002819538116499</v>
+      </c>
+    </row>
+    <row r="47" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M47" s="2">
+        <v>3.40004181861877</v>
+      </c>
+      <c r="N47" s="2">
+        <v>1.65846991539001</v>
+      </c>
+      <c r="O47" s="2">
+        <v>1.12609195709229</v>
+      </c>
+      <c r="P47" s="2">
+        <v>1.0584089756012001</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>1.08627009391785</v>
+      </c>
+    </row>
+    <row r="48" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M48" s="2">
+        <f>SUBTOTAL(101,Exec_Time_V134[1])</f>
+        <v>3.5189211606979369</v>
+      </c>
+      <c r="N48" s="2">
+        <f>SUBTOTAL(101,Exec_Time_V134[2])</f>
+        <v>1.6324170947074887</v>
+      </c>
+      <c r="O48" s="2">
+        <f>SUBTOTAL(101,Exec_Time_V134[4])</f>
+        <v>1.0155309557914742</v>
+      </c>
+      <c r="P48" s="2">
+        <f>SUBTOTAL(101,Exec_Time_V134[8])</f>
+        <v>1.0312058806419375</v>
+      </c>
+      <c r="Q48" s="2">
+        <f>SUBTOTAL(101,Exec_Time_V134[16])</f>
+        <v>1.0788819551467905</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="J2:N2"/>
+    <mergeCell ref="M26:Q26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>